--- a/doc/Specifications from Treasury/Upload_Template_SampleData_Cycle 1&2 (0301-0930202).xlsx
+++ b/doc/Specifications from Treasury/Upload_Template_SampleData_Cycle 1&2 (0301-0930202).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/US_Digital_Response/from email/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/US_Digital_Response/cares-reporter/doc/Specifications from Treasury/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F4C530-9406-7C4F-9489-4BE10BD2721A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E98F1-5C9E-D444-8E07-96146823863E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31880" windowHeight="21140" tabRatio="992" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31880" windowHeight="21140" tabRatio="992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="7" r:id="rId1"/>
@@ -180,56 +180,6 @@
     </comment>
     <comment ref="R2" authorId="2" shapeId="0" xr:uid="{8FBEA153-9108-4D1D-A85C-6CF6A20AA779}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
         <r>
           <rPr>
             <sz val="10"/>
@@ -3567,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ALY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.1640625" defaultRowHeight="13"/>
@@ -4508,8 +4458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F188BFFB-F5A0-4DCD-A81A-F0133638D615}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="80.1640625" defaultRowHeight="13"/>
@@ -6956,21 +6906,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAF72FC72DAC2E4897387A2C2FE89765" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ca160290b2d7a0d6827a249569f679">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71269ff5-58dc-4cfb-a057-7d743b8c493a" xmlns:ns4="5ed1b53d-38e3-4f5b-a041-d8cba0693c5a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f6a6b6afe4c1eece776fb7a3835c2c1" ns3:_="" ns4:_="">
     <xsd:import namespace="71269ff5-58dc-4cfb-a057-7d743b8c493a"/>
@@ -7193,24 +7128,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75D60C5D-9498-4A93-823D-B8096F186A6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22CA3EC2-FACB-4B11-B241-22D42CF7397B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{770C63EC-1167-4F80-A6AF-927518D0B481}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7227,4 +7160,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22CA3EC2-FACB-4B11-B241-22D42CF7397B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75D60C5D-9498-4A93-823D-B8096F186A6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>